--- a/AC40.xlsx
+++ b/AC40.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b62bb73bd0b90a02/ElectionsTamil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{86E0088D-20F9-47DE-BEDC-29D8F1D819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC758FE5-4103-4DAE-9522-2FEF0B477B63}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{86E0088D-20F9-47DE-BEDC-29D8F1D819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EA9F0C-CFBA-4E6C-8E96-BA2BF8E98ACF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4AFA3896-BEDB-4669-8AA7-EE7716294FCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -770,6 +770,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1090,7 +1094,7 @@
   <dimension ref="A1:X352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="D349" sqref="D349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AC40.xlsx
+++ b/AC40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b62bb73bd0b90a02/ElectionsTamil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{86E0088D-20F9-47DE-BEDC-29D8F1D819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EA9F0C-CFBA-4E6C-8E96-BA2BF8E98ACF}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{86E0088D-20F9-47DE-BEDC-29D8F1D819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCD36A5-615F-4F3B-8FD0-006511F511E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4AFA3896-BEDB-4669-8AA7-EE7716294FCF}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="219">
-  <si>
-    <t>SI.No.</t>
-  </si>
   <si>
     <t>6M</t>
   </si>
@@ -692,6 +689,9 @@
   <si>
     <t>Tendered_Votes</t>
   </si>
+  <si>
+    <t>SI_No</t>
+  </si>
 </sst>
 </file>
 
@@ -1093,9 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DC482A-3760-4CCA-B8D8-801C5E28E4BE}">
   <dimension ref="A1:X352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="D349" sqref="D349"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1124,70 +1122,70 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -1539,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>255</v>
@@ -1607,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>286</v>
@@ -1675,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>262</v>
@@ -1743,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>297</v>
@@ -1947,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>98</v>
@@ -2015,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>119</v>
@@ -2153,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
         <v>188</v>
@@ -2221,7 +2219,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>208</v>
@@ -2291,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>187</v>
@@ -2359,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>163</v>
@@ -2499,7 +2497,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
         <v>105</v>
@@ -2569,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <v>115</v>
@@ -2779,7 +2777,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
         <v>193</v>
@@ -2849,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
         <v>173</v>
@@ -2919,7 +2917,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>240</v>
@@ -2987,7 +2985,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>218</v>
@@ -4321,7 +4319,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
         <v>171</v>
@@ -4391,7 +4389,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
         <v>190</v>
@@ -4739,7 +4737,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2">
         <v>110</v>
@@ -4809,7 +4807,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" s="2">
         <v>110</v>
@@ -5019,7 +5017,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2">
         <v>106</v>
@@ -5087,7 +5085,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2">
         <v>118</v>
@@ -5293,7 +5291,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="2">
         <v>187</v>
@@ -5363,7 +5361,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="2">
         <v>239</v>
@@ -5993,7 +5991,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="2">
         <v>206</v>
@@ -6063,7 +6061,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2">
         <v>225</v>
@@ -6273,7 +6271,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="2">
         <v>163</v>
@@ -6343,7 +6341,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="2">
         <v>166</v>
@@ -6761,7 +6759,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="2">
         <v>301</v>
@@ -6829,7 +6827,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2">
         <v>334</v>
@@ -6897,7 +6895,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="2">
         <v>191</v>
@@ -6965,7 +6963,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" s="2">
         <v>197</v>
@@ -7169,7 +7167,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="2">
         <v>173</v>
@@ -7237,7 +7235,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2">
         <v>202</v>
@@ -7577,7 +7575,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C94" s="2">
         <v>202</v>
@@ -7645,7 +7643,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2">
         <v>205</v>
@@ -7713,7 +7711,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" s="2">
         <v>176</v>
@@ -7781,7 +7779,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2">
         <v>278</v>
@@ -8269,7 +8267,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C104" s="2">
         <v>148</v>
@@ -8339,7 +8337,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" s="2">
         <v>140</v>
@@ -8829,7 +8827,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="2">
         <v>177</v>
@@ -8899,7 +8897,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C113" s="2">
         <v>172</v>
@@ -9107,7 +9105,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" s="1">
         <v>240</v>
@@ -9177,7 +9175,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1">
         <v>268</v>
@@ -9247,7 +9245,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C118" s="1">
         <v>206</v>
@@ -9317,7 +9315,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C119" s="1">
         <v>192</v>
@@ -9457,7 +9455,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="1">
         <v>173</v>
@@ -9527,7 +9525,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="1">
         <v>185</v>
@@ -9737,7 +9735,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C125" s="1">
         <v>283</v>
@@ -9807,7 +9805,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C126" s="1">
         <v>368</v>
@@ -9877,7 +9875,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C127" s="1">
         <v>270</v>
@@ -9947,7 +9945,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C128" s="1">
         <v>318</v>
@@ -10017,7 +10015,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C129" s="1">
         <v>298</v>
@@ -10087,7 +10085,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C130" s="1">
         <v>364</v>
@@ -10157,7 +10155,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2">
         <v>291</v>
@@ -10225,7 +10223,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2">
         <v>317</v>
@@ -10361,7 +10359,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2">
         <v>167</v>
@@ -10429,7 +10427,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2">
         <v>212</v>
@@ -10497,7 +10495,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2">
         <v>235</v>
@@ -10565,7 +10563,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2">
         <v>285</v>
@@ -10633,7 +10631,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2">
         <v>156</v>
@@ -10701,7 +10699,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2">
         <v>155</v>
@@ -10837,7 +10835,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2">
         <v>137</v>
@@ -10905,7 +10903,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -10971,7 +10969,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2">
         <v>282</v>
@@ -11039,7 +11037,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C144" s="2">
         <v>292</v>
@@ -11241,7 +11239,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2">
         <v>268</v>
@@ -11309,7 +11307,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2">
         <v>294</v>
@@ -11379,7 +11377,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C149" s="2">
         <v>196</v>
@@ -11449,7 +11447,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C150" s="2">
         <v>201</v>
@@ -11519,7 +11517,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2">
         <v>207</v>
@@ -11589,7 +11587,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2">
         <v>222</v>
@@ -11659,7 +11657,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C153" s="2">
         <v>176</v>
@@ -11729,7 +11727,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2">
         <v>181</v>
@@ -11799,7 +11797,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2">
         <v>210</v>
@@ -11869,7 +11867,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2">
         <v>215</v>
@@ -11939,7 +11937,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2">
         <v>204</v>
@@ -12009,7 +12007,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2">
         <v>206</v>
@@ -12219,7 +12217,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C161" s="2">
         <v>124</v>
@@ -12289,7 +12287,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C162" s="2">
         <v>148</v>
@@ -12429,7 +12427,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C164" s="2">
         <v>175</v>
@@ -12499,7 +12497,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C165" s="2">
         <v>131</v>
@@ -12639,7 +12637,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C167" s="2">
         <v>198</v>
@@ -12709,7 +12707,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C168" s="2">
         <v>232</v>
@@ -12779,7 +12777,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2">
         <v>304</v>
@@ -12849,7 +12847,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C170" s="2">
         <v>279</v>
@@ -12919,7 +12917,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C171" s="2">
         <v>221</v>
@@ -12989,7 +12987,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C172" s="2">
         <v>301</v>
@@ -13339,7 +13337,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2">
         <v>145</v>
@@ -13409,7 +13407,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C178" s="2">
         <v>147</v>
@@ -13549,7 +13547,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C180" s="2">
         <v>264</v>
@@ -13619,7 +13617,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C181" s="2">
         <v>284</v>
@@ -13689,7 +13687,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C182" s="2">
         <v>183</v>
@@ -13759,7 +13757,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C183" s="2">
         <v>210</v>
@@ -13829,7 +13827,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C184" s="2">
         <v>216</v>
@@ -13899,7 +13897,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C185" s="2">
         <v>250</v>
@@ -14249,7 +14247,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C190" s="2">
         <v>146</v>
@@ -14319,7 +14317,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C191" s="2">
         <v>147</v>
@@ -14389,7 +14387,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C192" s="2">
         <v>200</v>
@@ -14459,7 +14457,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C193" s="2">
         <v>208</v>
@@ -14529,7 +14527,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C194" s="2">
         <v>222</v>
@@ -14599,7 +14597,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C195" s="2">
         <v>241</v>
@@ -14669,7 +14667,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C196" s="2">
         <v>222</v>
@@ -14739,7 +14737,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C197" s="2">
         <v>236</v>
@@ -14809,7 +14807,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C198" s="2">
         <v>201</v>
@@ -14879,7 +14877,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C199" s="1">
         <v>235</v>
@@ -14947,7 +14945,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C200" s="1">
         <v>188</v>
@@ -15015,7 +15013,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C201" s="1">
         <v>226</v>
@@ -15155,7 +15153,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C203" s="1">
         <v>238</v>
@@ -15225,7 +15223,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C204" s="1">
         <v>283</v>
@@ -15295,7 +15293,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C205" s="1">
         <v>237</v>
@@ -15365,7 +15363,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C206" s="1">
         <v>216</v>
@@ -15505,7 +15503,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C208" s="1">
         <v>196</v>
@@ -15575,7 +15573,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C209" s="1">
         <v>271</v>
@@ -15715,7 +15713,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C211" s="1">
         <v>300</v>
@@ -15785,7 +15783,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C212" s="1">
         <v>347</v>
@@ -15995,7 +15993,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C215" s="1">
         <v>141</v>
@@ -16065,7 +16063,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C216" s="1">
         <v>138</v>
@@ -16205,7 +16203,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C218" s="1">
         <v>143</v>
@@ -16275,7 +16273,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C219" s="1">
         <v>139</v>
@@ -16345,7 +16343,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C220" s="1">
         <v>207</v>
@@ -16415,7 +16413,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C221" s="1">
         <v>266</v>
@@ -16485,7 +16483,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C222" s="1">
         <v>140</v>
@@ -16555,7 +16553,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C223" s="1">
         <v>166</v>
@@ -16625,7 +16623,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C224" s="1">
         <v>164</v>
@@ -16695,7 +16693,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C225" s="1">
         <v>136</v>
@@ -16765,7 +16763,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C226" s="1">
         <v>188</v>
@@ -16833,7 +16831,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C227" s="1">
         <v>163</v>
@@ -17043,7 +17041,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C230" s="1">
         <v>184</v>
@@ -17113,7 +17111,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C231" s="1">
         <v>229</v>
@@ -17183,7 +17181,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C232" s="1">
         <v>187</v>
@@ -17253,7 +17251,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C233" s="2">
         <v>195</v>
@@ -17323,7 +17321,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C234" s="2">
         <v>175</v>
@@ -17393,7 +17391,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C235" s="2">
         <v>164</v>
@@ -17603,7 +17601,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C238" s="2">
         <v>232</v>
@@ -17673,7 +17671,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C239" s="2">
         <v>250</v>
@@ -17883,7 +17881,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C242" s="2">
         <v>190</v>
@@ -17953,7 +17951,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C243" s="2">
         <v>217</v>
@@ -18163,7 +18161,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C246" s="2">
         <v>246</v>
@@ -18233,7 +18231,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C247" s="2">
         <v>306</v>
@@ -18373,7 +18371,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C249" s="2">
         <v>210</v>
@@ -18443,7 +18441,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C250" s="2">
         <v>245</v>
@@ -18513,7 +18511,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C251" s="1">
         <v>213</v>
@@ -18583,7 +18581,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C252" s="1">
         <v>229</v>
@@ -18793,7 +18791,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C255" s="1">
         <v>256</v>
@@ -18863,7 +18861,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C256" s="1">
         <v>306</v>
@@ -18931,7 +18929,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C257" s="1">
         <v>292</v>
@@ -19001,7 +18999,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C258" s="1">
         <v>308</v>
@@ -19277,7 +19275,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C262" s="1">
         <v>204</v>
@@ -19347,7 +19345,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C263" s="1">
         <v>212</v>
@@ -19417,7 +19415,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C264" s="1">
         <v>325</v>
@@ -19487,7 +19485,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C265" s="1">
         <v>382</v>
@@ -19557,7 +19555,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C266" s="1">
         <v>207</v>
@@ -19625,7 +19623,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C267" s="1">
         <v>223</v>
@@ -19695,7 +19693,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C268" s="1">
         <v>156</v>
@@ -19765,7 +19763,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C269" s="1">
         <v>186</v>
@@ -19835,7 +19833,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C270" s="1">
         <v>173</v>
@@ -19905,7 +19903,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C271" s="1">
         <v>182</v>
@@ -19975,7 +19973,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C272" s="1">
         <v>181</v>
@@ -20045,7 +20043,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C273" s="1">
         <v>225</v>
@@ -20115,7 +20113,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C274" s="1">
         <v>215</v>
@@ -20185,7 +20183,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C275" s="1">
         <v>201</v>
@@ -20255,7 +20253,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C276" s="1">
         <v>194</v>
@@ -20325,7 +20323,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C277" s="1">
         <v>235</v>
@@ -20395,7 +20393,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C278" s="1">
         <v>281</v>
@@ -20465,7 +20463,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C279" s="1">
         <v>205</v>
@@ -20535,7 +20533,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C280" s="1">
         <v>290</v>
@@ -20605,7 +20603,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C281" s="1">
         <v>281</v>
@@ -20677,7 +20675,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C282" s="1">
         <v>134</v>
@@ -20749,7 +20747,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C283" s="1">
         <v>107</v>
@@ -20959,7 +20957,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C286" s="1">
         <v>197</v>
@@ -21029,7 +21027,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C287" s="1">
         <v>218</v>
@@ -21379,7 +21377,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C292" s="1">
         <v>178</v>
@@ -21449,7 +21447,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C293" s="1">
         <v>185</v>
@@ -21589,7 +21587,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C295" s="1">
         <v>205</v>
@@ -21659,7 +21657,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C296" s="1">
         <v>231</v>
@@ -21729,7 +21727,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C297" s="1">
         <v>250</v>
@@ -21799,7 +21797,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C298" s="1">
         <v>201</v>
@@ -22147,7 +22145,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C303" s="1">
         <v>190</v>
@@ -22219,7 +22217,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C304" s="1">
         <v>201</v>
@@ -22499,7 +22497,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C308" s="1">
         <v>188</v>
@@ -22571,7 +22569,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C309" s="1">
         <v>179</v>
@@ -22641,7 +22639,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C310" s="1">
         <v>146</v>
@@ -22713,7 +22711,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C311" s="1">
         <v>171</v>
@@ -22995,7 +22993,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C315" s="1">
         <v>152</v>
@@ -23065,7 +23063,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C316" s="1">
         <v>182</v>
@@ -23347,7 +23345,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C320" s="1">
         <v>171</v>
@@ -23417,7 +23415,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C321" s="1">
         <v>189</v>
@@ -23487,7 +23485,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C322" s="1">
         <v>187</v>
@@ -23557,7 +23555,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C323" s="1">
         <v>218</v>
@@ -23627,7 +23625,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C324" s="1">
         <v>243</v>
@@ -23697,7 +23695,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C325" s="1">
         <v>252</v>
@@ -23907,7 +23905,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C328" s="1">
         <v>163</v>
@@ -23977,7 +23975,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C329" s="1">
         <v>186</v>
@@ -24117,7 +24115,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C331" s="1">
         <v>219</v>
@@ -24187,7 +24185,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C332" s="1">
         <v>211</v>
@@ -24675,7 +24673,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C339" s="1">
         <v>128</v>
@@ -24745,7 +24743,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C340" s="1">
         <v>133</v>
@@ -24955,7 +24953,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C343" s="1">
         <v>208</v>
@@ -25025,7 +25023,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C344" s="1">
         <v>218</v>
@@ -25095,7 +25093,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C345" s="1">
         <v>165</v>
@@ -25165,7 +25163,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C346" s="1">
         <v>150</v>
@@ -25443,7 +25441,7 @@
     <row r="350" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C350" s="1">
         <v>85140</v>

--- a/AC40.xlsx
+++ b/AC40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b62bb73bd0b90a02/ElectionsTamil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{86E0088D-20F9-47DE-BEDC-29D8F1D819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCD36A5-615F-4F3B-8FD0-006511F511E6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{86E0088D-20F9-47DE-BEDC-29D8F1D819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214FC3AE-7EBB-4E1B-B878-E8E6316E24AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4AFA3896-BEDB-4669-8AA7-EE7716294FCF}"/>
   </bookViews>
@@ -1093,7 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DC482A-3760-4CCA-B8D8-801C5E28E4BE}">
   <dimension ref="A1:X352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="C347" sqref="C347"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25438,11 +25440,11 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
-      <c r="B350" s="3" t="s">
+    <row r="350" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="B350" s="3"/>
       <c r="C350" s="1">
         <v>85140</v>
       </c>
